--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_24_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_24_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31814.56069755093</v>
+        <v>6331097.578812636</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31814.56069755093</v>
+        <v>6331097.578812636</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>95336.72840934411</v>
+        <v>9192972.460754033</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>95336.72840934411</v>
+        <v>9192972.460754033</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1419297570.840134</v>
+        <v>52985355.34559268</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14846.28694293375</v>
+        <v>1435339.897754329</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27621.99273710926</v>
+        <v>2517401.87884847</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>40386.99714524997</v>
+        <v>3599463.859942611</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>53771.59915040941</v>
+        <v>4680156.358447335</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>67156.31845054902</v>
+        <v>5760872.19865312</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>80541.03775068863</v>
+        <v>6841588.038858903</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>93925.75705082825</v>
+        <v>7922303.879064682</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>107310.4763509679</v>
+        <v>9003019.719270462</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>121344.4282770064</v>
+        <v>9677295.70146591</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>135882.8738171557</v>
+        <v>10451965.91286939</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>150421.319357305</v>
+        <v>11226636.12427287</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>164959.7648974542</v>
+        <v>12001306.33567635</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>179498.2104376034</v>
+        <v>12775976.54707984</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>194036.6559777527</v>
+        <v>13550646.75848334</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>208575.101517902</v>
+        <v>14325316.96988683</v>
       </c>
     </row>
   </sheetData>
